--- a/Kependudukan.xlsx
+++ b/Kependudukan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LATSAR\Aktualisasi\Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9970184-BC54-4464-A77B-2DF340BF03B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37407C5-FEDA-4DAB-90E9-50AF1A4C65EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{098B856F-29F1-4986-BB1D-3A833D71C608}"/>
   </bookViews>
@@ -150,13 +150,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,11 +476,15 @@
   <dimension ref="A1:CS12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CF15" sqref="CF15"/>
+      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CA7" sqref="CA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="51" max="65" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -1002,6 +1007,102 @@
       <c r="AW2">
         <v>7876</v>
       </c>
+      <c r="AX2" s="4">
+        <v>34.142498269519436</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>11.077892122072392</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>32.411579862271843</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>60.976121562952244</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>38.331337325349303</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>17.761766926755598</v>
+      </c>
+      <c r="BD2" s="4">
+        <v>19.334105901230167</v>
+      </c>
+      <c r="BE2" s="4">
+        <v>61.143290116181177</v>
+      </c>
+      <c r="BF2" s="4">
+        <v>31.10233222275107</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>58.662790697674417</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>47.821190211345936</v>
+      </c>
+      <c r="BI2" s="4">
+        <v>44.834643091028163</v>
+      </c>
+      <c r="BJ2" s="4">
+        <v>25.682758620689654</v>
+      </c>
+      <c r="BK2" s="4">
+        <v>21.069891371182621</v>
+      </c>
+      <c r="BL2" s="4">
+        <v>38.721299390019141</v>
+      </c>
+      <c r="BM2" s="4">
+        <v>32.851308962496795</v>
+      </c>
+      <c r="BN2" s="4">
+        <v>107.57395218641246</v>
+      </c>
+      <c r="BO2" s="4">
+        <v>112.00339558573853</v>
+      </c>
+      <c r="BP2" s="4">
+        <v>110.5907906168549</v>
+      </c>
+      <c r="BQ2" s="4">
+        <v>101.24901487832254</v>
+      </c>
+      <c r="BR2" s="4">
+        <v>105.72040707016603</v>
+      </c>
+      <c r="BS2" s="4">
+        <v>112.02583940509277</v>
+      </c>
+      <c r="BT2" s="4">
+        <v>108.46789696270665</v>
+      </c>
+      <c r="BU2" s="4">
+        <v>106.81740517143183</v>
+      </c>
+      <c r="BV2" s="4">
+        <v>109.10720000000001</v>
+      </c>
+      <c r="BW2" s="4">
+        <v>109.18514512349017</v>
+      </c>
+      <c r="BX2" s="4">
+        <v>108.58147856146523</v>
+      </c>
+      <c r="BY2" s="4">
+        <v>106.42997135534449</v>
+      </c>
+      <c r="BZ2" s="4">
+        <v>106.8888888888889</v>
+      </c>
+      <c r="CA2" s="4">
+        <v>112.66032271410839</v>
+      </c>
+      <c r="CB2" s="4">
+        <v>109.94777899555154</v>
+      </c>
+      <c r="CC2" s="4">
+        <v>111.42712036566785</v>
+      </c>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1151,6 +1252,102 @@
       <c r="AW3">
         <v>8121</v>
       </c>
+      <c r="AX3" s="4">
+        <v>34.578190500633866</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>11.139105748757984</v>
+      </c>
+      <c r="AZ3" s="4">
+        <v>32.637561008223571</v>
+      </c>
+      <c r="BA3" s="4">
+        <v>61.685962373371922</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>38.614770459081839</v>
+      </c>
+      <c r="BC3" s="4">
+        <v>17.917820286936823</v>
+      </c>
+      <c r="BD3" s="4">
+        <v>19.55428775182742</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>62.544199360161649</v>
+      </c>
+      <c r="BF3" s="4">
+        <v>31.600190385530698</v>
+      </c>
+      <c r="BG3" s="4">
+        <v>58.95096056622851</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>48.773637374860954</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>45.266863130320893</v>
+      </c>
+      <c r="BJ3" s="4">
+        <v>25.797701149425286</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>21.170321787251488</v>
+      </c>
+      <c r="BL3" s="4">
+        <v>39.422836827148309</v>
+      </c>
+      <c r="BM3" s="4">
+        <v>33.778531831363807</v>
+      </c>
+      <c r="BN3" s="4">
+        <v>106.98426886781473</v>
+      </c>
+      <c r="BO3" s="4">
+        <v>111.38047138047138</v>
+      </c>
+      <c r="BP3" s="4">
+        <v>109.97935306262904</v>
+      </c>
+      <c r="BQ3" s="4">
+        <v>100.69212298130796</v>
+      </c>
+      <c r="BR3" s="4">
+        <v>105.15376458112407</v>
+      </c>
+      <c r="BS3" s="4">
+        <v>111.41138911574726</v>
+      </c>
+      <c r="BT3" s="4">
+        <v>107.88476118271417</v>
+      </c>
+      <c r="BU3" s="4">
+        <v>106.22362869198312</v>
+      </c>
+      <c r="BV3" s="4">
+        <v>108.5175879396985</v>
+      </c>
+      <c r="BW3" s="4">
+        <v>108.5770503532779</v>
+      </c>
+      <c r="BX3" s="4">
+        <v>107.98055259101149</v>
+      </c>
+      <c r="BY3" s="4">
+        <v>105.84425253126861</v>
+      </c>
+      <c r="BZ3" s="4">
+        <v>106.32469203897776</v>
+      </c>
+      <c r="CA3" s="4">
+        <v>112.05091357010882</v>
+      </c>
+      <c r="CB3" s="4">
+        <v>109.33830029044071</v>
+      </c>
+      <c r="CC3" s="4">
+        <v>110.83610392808767</v>
+      </c>
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -1300,6 +1497,102 @@
       <c r="AW4">
         <v>8371</v>
       </c>
+      <c r="AX4" s="4">
+        <v>35.092668206599939</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>11.223385379701917</v>
+      </c>
+      <c r="AZ4" s="4">
+        <v>32.931737647924045</v>
+      </c>
+      <c r="BA4" s="4">
+        <v>62.538350217076697</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>38.980039920159683</v>
+      </c>
+      <c r="BC4" s="4">
+        <v>18.111628492323181</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>19.817257978249245</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>64.106751978447548</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>32.171346977629703</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>59.360465116279066</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>49.845661846496107</v>
+      </c>
+      <c r="BI4" s="4">
+        <v>45.797314996725611</v>
+      </c>
+      <c r="BJ4" s="4">
+        <v>25.96551724137931</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>21.313793810207009</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>40.21830893806257</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>34.802422616346746</v>
+      </c>
+      <c r="BN4" s="4">
+        <v>106.89874955865429</v>
+      </c>
+      <c r="BO4" s="4">
+        <v>111.27254509018036</v>
+      </c>
+      <c r="BP4" s="4">
+        <v>109.87685883505902</v>
+      </c>
+      <c r="BQ4" s="4">
+        <v>100.66867889482238</v>
+      </c>
+      <c r="BR4" s="4">
+        <v>105.05039899202015</v>
+      </c>
+      <c r="BS4" s="4">
+        <v>111.3134131121063</v>
+      </c>
+      <c r="BT4" s="4">
+        <v>107.78577437143659</v>
+      </c>
+      <c r="BU4" s="4">
+        <v>106.1231119051486</v>
+      </c>
+      <c r="BV4" s="4">
+        <v>108.41144548593982</v>
+      </c>
+      <c r="BW4" s="4">
+        <v>108.47833806818181</v>
+      </c>
+      <c r="BX4" s="4">
+        <v>107.88054508553205</v>
+      </c>
+      <c r="BY4" s="4">
+        <v>105.74433656957929</v>
+      </c>
+      <c r="BZ4" s="4">
+        <v>106.22603615117765</v>
+      </c>
+      <c r="CA4" s="4">
+        <v>111.9217444467088</v>
+      </c>
+      <c r="CB4" s="4">
+        <v>109.24218991648624</v>
+      </c>
+      <c r="CC4" s="4">
+        <v>110.73945765141559</v>
+      </c>
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1448,6 +1741,102 @@
       </c>
       <c r="AW5">
         <v>8624</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>35.597424111621834</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>11.302342086586231</v>
+      </c>
+      <c r="AZ5" s="4">
+        <v>33.210536872367456</v>
+      </c>
+      <c r="BA5" s="4">
+        <v>63.369753979739507</v>
+      </c>
+      <c r="BB5" s="4">
+        <v>39.327345309381236</v>
+      </c>
+      <c r="BC5" s="4">
+        <v>18.297885728668511</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>20.073096808700303</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>65.674355952180505</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>32.735840076154211</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>59.74216380182002</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>50.914905450500555</v>
+      </c>
+      <c r="BI5" s="4">
+        <v>46.309757694826459</v>
+      </c>
+      <c r="BJ5" s="4">
+        <v>26.119540229885057</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>21.447017831522853</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>41.00783581645878</v>
+      </c>
+      <c r="BM5" s="4">
+        <v>35.838150289017342</v>
+      </c>
+      <c r="BN5" s="4">
+        <v>106.80788190694794</v>
+      </c>
+      <c r="BO5" s="4">
+        <v>111.17188794961048</v>
+      </c>
+      <c r="BP5" s="4">
+        <v>109.7854548526058</v>
+      </c>
+      <c r="BQ5" s="4">
+        <v>100.58404525778155</v>
+      </c>
+      <c r="BR5" s="4">
+        <v>104.96203058358473</v>
+      </c>
+      <c r="BS5" s="4">
+        <v>111.22248855959904</v>
+      </c>
+      <c r="BT5" s="4">
+        <v>107.69230769230769</v>
+      </c>
+      <c r="BU5" s="4">
+        <v>106.03243357456024</v>
+      </c>
+      <c r="BV5" s="4">
+        <v>108.31717954930942</v>
+      </c>
+      <c r="BW5" s="4">
+        <v>108.39432148840491</v>
+      </c>
+      <c r="BX5" s="4">
+        <v>107.78528059921693</v>
+      </c>
+      <c r="BY5" s="4">
+        <v>105.6565362803548</v>
+      </c>
+      <c r="BZ5" s="4">
+        <v>106.13207547169812</v>
+      </c>
+      <c r="CA5" s="4">
+        <v>111.82186234817814</v>
+      </c>
+      <c r="CB5" s="4">
+        <v>109.14493632504548</v>
+      </c>
+      <c r="CC5" s="4">
+        <v>110.64471243042671</v>
       </c>
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.3">
